--- a/Code/Results/Cases/Case_1_116/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_116/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3184086354564499</v>
+        <v>0.1141855918187531</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1.330102656305456</v>
+        <v>0.3333169489289673</v>
       </c>
       <c r="E2">
-        <v>0.3180291256467171</v>
+        <v>0.07228057393488996</v>
       </c>
       <c r="F2">
-        <v>14.17183241158256</v>
+        <v>8.81180779629409</v>
       </c>
       <c r="G2">
-        <v>0.0006254793284051675</v>
+        <v>0.00268980014758706</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.1369973191626821</v>
+        <v>0.4039108783602199</v>
       </c>
       <c r="J2">
-        <v>0.06023813188752314</v>
+        <v>0.06544983559139794</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>8.616043589698222</v>
+        <v>3.712919696322587</v>
       </c>
       <c r="N2">
-        <v>0.7666263941419373</v>
+        <v>1.277554709393584</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2775316862378077</v>
+        <v>0.1008095624010394</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1.069166423483324</v>
+        <v>0.2980405007020011</v>
       </c>
       <c r="E3">
-        <v>0.2590763250352524</v>
+        <v>0.06280600970178796</v>
       </c>
       <c r="F3">
-        <v>11.65232659389403</v>
+        <v>8.576231426350375</v>
       </c>
       <c r="G3">
-        <v>0.0006703322624561101</v>
+        <v>0.002707523031837855</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.1583935699629802</v>
+        <v>0.411782040084729</v>
       </c>
       <c r="J3">
-        <v>0.05510661697530139</v>
+        <v>0.06456493952439146</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>7.107208112549358</v>
+        <v>3.495903041952886</v>
       </c>
       <c r="N3">
-        <v>0.8044513194504361</v>
+        <v>1.285322665297556</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2523746097867416</v>
+        <v>0.09258336114528731</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.9309289539909003</v>
+        <v>0.276718284951869</v>
       </c>
       <c r="E4">
-        <v>0.2273579032654141</v>
+        <v>0.05700749745576417</v>
       </c>
       <c r="F4">
-        <v>10.33209814518233</v>
+        <v>8.440308497472017</v>
       </c>
       <c r="G4">
-        <v>0.0006959427251541821</v>
+        <v>0.002718903784300632</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.1715182166434621</v>
+        <v>0.4168841013767013</v>
       </c>
       <c r="J4">
-        <v>0.05229815833645191</v>
+        <v>0.06402602727505879</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>6.287136680922913</v>
+        <v>3.36546262853517</v>
       </c>
       <c r="N4">
-        <v>0.8264660114597433</v>
+        <v>1.290708908355413</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2421085566050465</v>
+        <v>0.08922811169776423</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.8782993080433243</v>
+        <v>0.2681086155417347</v>
       </c>
       <c r="E5">
-        <v>0.2151782057588392</v>
+        <v>0.05464823394373752</v>
       </c>
       <c r="F5">
-        <v>9.833040570530869</v>
+        <v>8.387054535638157</v>
       </c>
       <c r="G5">
-        <v>0.0007060972381331958</v>
+        <v>0.002723667960942203</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.1769057922811115</v>
+        <v>0.4190309441090818</v>
       </c>
       <c r="J5">
-        <v>0.05120958471592019</v>
+        <v>0.06380748318707319</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>5.971034131041449</v>
+        <v>3.312988843516109</v>
       </c>
       <c r="N5">
-        <v>0.8353339184811119</v>
+        <v>1.293059640577219</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2404030132492778</v>
+        <v>0.08867080332441901</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.8697465705380694</v>
+        <v>0.2666836163687094</v>
       </c>
       <c r="E6">
-        <v>0.2131930726807525</v>
+        <v>0.05425667137317447</v>
       </c>
       <c r="F6">
-        <v>9.752152701736577</v>
+        <v>8.378339109065649</v>
       </c>
       <c r="G6">
-        <v>0.0007077705350457307</v>
+        <v>0.002724466713400778</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.1778035886444389</v>
+        <v>0.4193915163515944</v>
       </c>
       <c r="J6">
-        <v>0.05103160341109358</v>
+        <v>0.06377125731506439</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>5.919459511003595</v>
+        <v>3.304316088841716</v>
       </c>
       <c r="N6">
-        <v>0.8368042062657821</v>
+        <v>1.293459408924193</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2522362165050822</v>
+        <v>0.09253812280854845</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.9302059452553522</v>
+        <v>0.2766018580915102</v>
       </c>
       <c r="E7">
-        <v>0.2271909912631855</v>
+        <v>0.05697566611002003</v>
       </c>
       <c r="F7">
-        <v>10.32522760423223</v>
+        <v>8.43958172277641</v>
       </c>
       <c r="G7">
-        <v>0.0006960806162861065</v>
+        <v>0.002718967522448847</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.1715906772705589</v>
+        <v>0.4169127802383796</v>
       </c>
       <c r="J7">
-        <v>0.05228327968832858</v>
+        <v>0.06402307564910714</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>6.282808832972989</v>
+        <v>3.364752220060382</v>
       </c>
       <c r="N7">
-        <v>0.8265858343148551</v>
+        <v>1.290739979373882</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3043270427800167</v>
+        <v>0.109576482731697</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1.234105405150984</v>
+        <v>0.3210801045543974</v>
       </c>
       <c r="E8">
-        <v>0.2964661458786182</v>
+        <v>0.06900915686149034</v>
       </c>
       <c r="F8">
-        <v>13.24158876792239</v>
+        <v>8.728735505745419</v>
       </c>
       <c r="G8">
-        <v>0.0006415077457026011</v>
+        <v>0.002695808070731884</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.1444124208494415</v>
+        <v>0.4065690172184357</v>
       </c>
       <c r="J8">
-        <v>0.0583730223242469</v>
+        <v>0.06514377927114978</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>8.06679366226021</v>
+        <v>3.637494276173868</v>
       </c>
       <c r="N8">
-        <v>0.7800834380104362</v>
+        <v>1.280105536868675</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4057524105406998</v>
+        <v>0.1428706530693233</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2.262211070777738</v>
+        <v>0.4112470926662297</v>
       </c>
       <c r="E9">
-        <v>0.5223063259403062</v>
+        <v>0.09280826514971352</v>
       </c>
       <c r="F9">
-        <v>23.26378388982675</v>
+        <v>9.367700595510769</v>
       </c>
       <c r="G9">
-        <v>0.0004908781062255187</v>
+        <v>0.002654304278975268</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.08444344460274955</v>
+        <v>0.3884186046752465</v>
       </c>
       <c r="J9">
-        <v>0.07767792696862585</v>
+        <v>0.06737872431420655</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>13.60959331910917</v>
+        <v>4.195809051292827</v>
       </c>
       <c r="N9">
-        <v>0.6494736134933135</v>
+        <v>1.264113668017842</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4057524105406998</v>
+        <v>0.1672453775322538</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2.262211070777738</v>
+        <v>0.4796778710994545</v>
       </c>
       <c r="E10">
-        <v>0.5223063259403062</v>
+        <v>0.110491996975739</v>
       </c>
       <c r="F10">
-        <v>23.26378388982675</v>
+        <v>9.885003994540796</v>
       </c>
       <c r="G10">
-        <v>0.0004908781062255187</v>
+        <v>0.002626130082598916</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.08444344460274955</v>
+        <v>0.3763814195515653</v>
       </c>
       <c r="J10">
-        <v>0.07767792696862585</v>
+        <v>0.06904683420804503</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>13.60959331910917</v>
+        <v>4.622067154923371</v>
       </c>
       <c r="N10">
-        <v>0.6494736134933135</v>
+        <v>1.255288292216051</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4057524105406998</v>
+        <v>0.1783124145359238</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>2.262211070777738</v>
+        <v>0.5113734602943509</v>
       </c>
       <c r="E11">
-        <v>0.5223063259403062</v>
+        <v>0.1185974515411843</v>
       </c>
       <c r="F11">
-        <v>23.26378388982675</v>
+        <v>10.13165864121345</v>
       </c>
       <c r="G11">
-        <v>0.0004908781062255187</v>
+        <v>0.002613801561328294</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.08444344460274955</v>
+        <v>0.3711866250540261</v>
       </c>
       <c r="J11">
-        <v>0.07767792696862585</v>
+        <v>0.06981217341703427</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>13.60959331910917</v>
+        <v>4.819881476264044</v>
       </c>
       <c r="N11">
-        <v>0.6494736134933135</v>
+        <v>1.251899959915477</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4057524105406998</v>
+        <v>0.1824998850534314</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>2.262211070777738</v>
+        <v>0.5234649031838217</v>
       </c>
       <c r="E12">
-        <v>0.5223063259403062</v>
+        <v>0.121677054413631</v>
       </c>
       <c r="F12">
-        <v>23.26378388982675</v>
+        <v>10.22676976099706</v>
       </c>
       <c r="G12">
-        <v>0.0004908781062255187</v>
+        <v>0.00260920202682191</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.08444344460274955</v>
+        <v>0.3692598638240856</v>
       </c>
       <c r="J12">
-        <v>0.07767792696862585</v>
+        <v>0.07010299105635909</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>13.60959331910917</v>
+        <v>4.895385557163195</v>
       </c>
       <c r="N12">
-        <v>0.6494736134933135</v>
+        <v>1.250706275362205</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4057524105406998</v>
+        <v>0.181598193804632</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>2.262211070777738</v>
+        <v>0.5208567104844519</v>
       </c>
       <c r="E13">
-        <v>0.5223063259403062</v>
+        <v>0.1210133270965343</v>
       </c>
       <c r="F13">
-        <v>23.26378388982675</v>
+        <v>10.2062085977023</v>
       </c>
       <c r="G13">
-        <v>0.0004908781062255187</v>
+        <v>0.002610189568728901</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.08444344460274955</v>
+        <v>0.3696730299177027</v>
       </c>
       <c r="J13">
-        <v>0.07767792696862585</v>
+        <v>0.07004031271225841</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>13.60959331910917</v>
+        <v>4.879097325965574</v>
       </c>
       <c r="N13">
-        <v>0.6494736134933135</v>
+        <v>1.250959391027067</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4057524105406998</v>
+        <v>0.1786569898254129</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>2.262211070777738</v>
+        <v>0.512366401690258</v>
       </c>
       <c r="E14">
-        <v>0.5223063259403062</v>
+        <v>0.1188505983628332</v>
       </c>
       <c r="F14">
-        <v>23.26378388982675</v>
+        <v>10.13944878499154</v>
       </c>
       <c r="G14">
-        <v>0.0004908781062255187</v>
+        <v>0.002613421778481135</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.08444344460274955</v>
+        <v>0.3710272997330826</v>
       </c>
       <c r="J14">
-        <v>0.07767792696862585</v>
+        <v>0.06983607872678732</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>13.60959331910917</v>
+        <v>4.826081093152368</v>
       </c>
       <c r="N14">
-        <v>0.6494736134933135</v>
+        <v>1.251799966797847</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4057524105406998</v>
+        <v>0.1768549679028126</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>2.262211070777738</v>
+        <v>0.5071776667383574</v>
       </c>
       <c r="E15">
-        <v>0.5223063259403062</v>
+        <v>0.1175272433493433</v>
       </c>
       <c r="F15">
-        <v>23.26378388982675</v>
+        <v>10.09878136584575</v>
       </c>
       <c r="G15">
-        <v>0.0004908781062255187</v>
+        <v>0.002615410552243876</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.08444344460274955</v>
+        <v>0.3718620893955382</v>
       </c>
       <c r="J15">
-        <v>0.07767792696862585</v>
+        <v>0.06971111176991229</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>13.60959331910917</v>
+        <v>4.793685796131001</v>
       </c>
       <c r="N15">
-        <v>0.6494736134933135</v>
+        <v>1.252326466959715</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4057524105406998</v>
+        <v>0.1665216663427742</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>2.262211070777738</v>
+        <v>0.4776185225325662</v>
       </c>
       <c r="E16">
-        <v>0.5223063259403062</v>
+        <v>0.1099636382679137</v>
       </c>
       <c r="F16">
-        <v>23.26378388982675</v>
+        <v>9.869119198261899</v>
       </c>
       <c r="G16">
-        <v>0.0004908781062255187</v>
+        <v>0.002626945501876327</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.08444344460274955</v>
+        <v>0.3767265647750762</v>
       </c>
       <c r="J16">
-        <v>0.07767792696862585</v>
+        <v>0.06899695385605042</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>13.60959331910917</v>
+        <v>4.60922103222461</v>
       </c>
       <c r="N16">
-        <v>0.6494736134933135</v>
+        <v>1.255522274653885</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4057524105406998</v>
+        <v>0.1601768642966164</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>2.262211070777738</v>
+        <v>0.4596352260936101</v>
       </c>
       <c r="E17">
-        <v>0.5223063259403062</v>
+        <v>0.1053402638266334</v>
       </c>
       <c r="F17">
-        <v>23.26378388982675</v>
+        <v>9.73118591536155</v>
       </c>
       <c r="G17">
-        <v>0.0004908781062255187</v>
+        <v>0.002634146001049131</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.08444344460274955</v>
+        <v>0.3797827215258618</v>
       </c>
       <c r="J17">
-        <v>0.07767792696862585</v>
+        <v>0.06856055240892545</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>13.60959331910917</v>
+        <v>4.497082403350447</v>
       </c>
       <c r="N17">
-        <v>0.6494736134933135</v>
+        <v>1.257642750860427</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4057524105406998</v>
+        <v>0.1565255312482918</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>2.262211070777738</v>
+        <v>0.4493445143411918</v>
       </c>
       <c r="E18">
-        <v>0.5223063259403062</v>
+        <v>0.1026866739667796</v>
       </c>
       <c r="F18">
-        <v>23.26378388982675</v>
+        <v>9.652911875354789</v>
       </c>
       <c r="G18">
-        <v>0.0004908781062255187</v>
+        <v>0.002638333549291659</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.08444344460274955</v>
+        <v>0.3815669899135106</v>
       </c>
       <c r="J18">
-        <v>0.07767792696862585</v>
+        <v>0.06831015425656517</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>13.60959331910917</v>
+        <v>4.432948852783539</v>
       </c>
       <c r="N18">
-        <v>0.6494736134933135</v>
+        <v>1.258921389601824</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4057524105406998</v>
+        <v>0.1552889244266993</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>2.262211070777738</v>
+        <v>0.4458690998288262</v>
       </c>
       <c r="E19">
-        <v>0.5223063259403062</v>
+        <v>0.1017891414722598</v>
       </c>
       <c r="F19">
-        <v>23.26378388982675</v>
+        <v>9.626589608630297</v>
       </c>
       <c r="G19">
-        <v>0.0004908781062255187</v>
+        <v>0.002639759318483953</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.08444344460274955</v>
+        <v>0.3821756552940574</v>
       </c>
       <c r="J19">
-        <v>0.07767792696862585</v>
+        <v>0.06822547634568821</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>13.60959331910917</v>
+        <v>4.411296118482426</v>
       </c>
       <c r="N19">
-        <v>0.6494736134933135</v>
+        <v>1.259364467974805</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4057524105406998</v>
+        <v>0.1608524857101941</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>2.262211070777738</v>
+        <v>0.4615440597217457</v>
       </c>
       <c r="E20">
-        <v>0.5223063259403062</v>
+        <v>0.1058318345024958</v>
       </c>
       <c r="F20">
-        <v>23.26378388982675</v>
+        <v>9.745758724454447</v>
       </c>
       <c r="G20">
-        <v>0.0004908781062255187</v>
+        <v>0.002633374742171574</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.08444344460274955</v>
+        <v>0.3794546512457586</v>
       </c>
       <c r="J20">
-        <v>0.07767792696862585</v>
+        <v>0.06860694466565675</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>13.60959331910917</v>
+        <v>4.508981669383701</v>
       </c>
       <c r="N20">
-        <v>0.6494736134933135</v>
+        <v>1.257410921459552</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4057524105406998</v>
+        <v>0.1795209870099086</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>2.262211070777738</v>
+        <v>0.514857732877033</v>
       </c>
       <c r="E21">
-        <v>0.5223063259403062</v>
+        <v>0.1194855541540534</v>
       </c>
       <c r="F21">
-        <v>23.26378388982675</v>
+        <v>10.15901074577329</v>
       </c>
       <c r="G21">
-        <v>0.0004908781062255187</v>
+        <v>0.00261247053690165</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.08444344460274955</v>
+        <v>0.3706284216366491</v>
       </c>
       <c r="J21">
-        <v>0.07767792696862585</v>
+        <v>0.06989603951516443</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>13.60959331910917</v>
+        <v>4.84163678602394</v>
       </c>
       <c r="N21">
-        <v>0.6494736134933135</v>
+        <v>1.251550648232111</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4057524105406998</v>
+        <v>0.1917021000906232</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>2.262211070777738</v>
+        <v>0.5502239404304987</v>
       </c>
       <c r="E22">
-        <v>0.5223063259403062</v>
+        <v>0.1284694905734867</v>
       </c>
       <c r="F22">
-        <v>23.26378388982675</v>
+        <v>10.43909211422579</v>
       </c>
       <c r="G22">
-        <v>0.0004908781062255187</v>
+        <v>0.002599210094606625</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.08444344460274955</v>
+        <v>0.3650954174035519</v>
       </c>
       <c r="J22">
-        <v>0.07767792696862585</v>
+        <v>0.07074440112486968</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>13.60959331910917</v>
+        <v>5.062537867036667</v>
       </c>
       <c r="N22">
-        <v>0.6494736134933135</v>
+        <v>1.248241426357609</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4057524105406998</v>
+        <v>0.1852027350620915</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>2.262211070777738</v>
+        <v>0.5312978913959796</v>
       </c>
       <c r="E23">
-        <v>0.5223063259403062</v>
+        <v>0.12366855950917</v>
       </c>
       <c r="F23">
-        <v>23.26378388982675</v>
+        <v>10.28866547319222</v>
       </c>
       <c r="G23">
-        <v>0.0004908781062255187</v>
+        <v>0.002606251087721186</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.08444344460274955</v>
+        <v>0.3680269456241394</v>
       </c>
       <c r="J23">
-        <v>0.07767792696862585</v>
+        <v>0.07029105557555226</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>13.60959331910917</v>
+        <v>4.94430750361667</v>
       </c>
       <c r="N23">
-        <v>0.6494736134933135</v>
+        <v>1.249960185824392</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4057524105406998</v>
+        <v>0.1605470485250891</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>2.262211070777738</v>
+        <v>0.4606809267102108</v>
       </c>
       <c r="E24">
-        <v>0.5223063259403062</v>
+        <v>0.1056095816501568</v>
       </c>
       <c r="F24">
-        <v>23.26378388982675</v>
+        <v>9.739167168746292</v>
       </c>
       <c r="G24">
-        <v>0.0004908781062255187</v>
+        <v>0.002633723279212352</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.08444344460274955</v>
+        <v>0.3796028869622337</v>
       </c>
       <c r="J24">
-        <v>0.07767792696862585</v>
+        <v>0.06858596919020599</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>13.60959331910917</v>
+        <v>4.503600965836597</v>
       </c>
       <c r="N24">
-        <v>0.6494736134933135</v>
+        <v>1.257515545999993</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4057524105406998</v>
+        <v>0.1338778525281015</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>2.262211070777738</v>
+        <v>0.3865000600602286</v>
       </c>
       <c r="E25">
-        <v>0.5223063259403062</v>
+        <v>0.08634079948695472</v>
       </c>
       <c r="F25">
-        <v>23.26378388982675</v>
+        <v>9.186740509996582</v>
       </c>
       <c r="G25">
-        <v>0.0004908781062255187</v>
+        <v>0.002665120092791551</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.08444344460274955</v>
+        <v>0.3931006435439315</v>
       </c>
       <c r="J25">
-        <v>0.07767792696862585</v>
+        <v>0.06676978666531141</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>13.60959331910917</v>
+        <v>4.042081441369533</v>
       </c>
       <c r="N25">
-        <v>0.6494736134933135</v>
+        <v>1.267923560764686</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_116/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_116/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1141855918187531</v>
+        <v>0.318408635456521</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.3333169489289673</v>
+        <v>1.330102656305627</v>
       </c>
       <c r="E2">
-        <v>0.07228057393488996</v>
+        <v>0.3180291256466532</v>
       </c>
       <c r="F2">
-        <v>8.81180779629409</v>
+        <v>14.17183241158278</v>
       </c>
       <c r="G2">
-        <v>0.00268980014758706</v>
+        <v>0.0006254793284898275</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.4039108783602199</v>
+        <v>0.1369973191626954</v>
       </c>
       <c r="J2">
-        <v>0.06544983559139794</v>
+        <v>0.0602381318872709</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>3.712919696322587</v>
+        <v>8.616043589698364</v>
       </c>
       <c r="N2">
-        <v>1.277554709393584</v>
+        <v>0.7666263941419231</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1008095624010394</v>
+        <v>0.2775316862378929</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2980405007020011</v>
+        <v>1.069166423483296</v>
       </c>
       <c r="E3">
-        <v>0.06280600970178796</v>
+        <v>0.2590763250352737</v>
       </c>
       <c r="F3">
-        <v>8.576231426350375</v>
+        <v>11.65232659389392</v>
       </c>
       <c r="G3">
-        <v>0.002707523031837855</v>
+        <v>0.000670332262589652</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.411782040084729</v>
+        <v>0.1583935699629846</v>
       </c>
       <c r="J3">
-        <v>0.06456493952439146</v>
+        <v>0.05510661697525165</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>3.495903041952886</v>
+        <v>7.107208112549301</v>
       </c>
       <c r="N3">
-        <v>1.285322665297556</v>
+        <v>0.8044513194504361</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09258336114528731</v>
+        <v>0.2523746097867559</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.276718284951869</v>
+        <v>0.9309289539909571</v>
       </c>
       <c r="E4">
-        <v>0.05700749745576417</v>
+        <v>0.2273579032653643</v>
       </c>
       <c r="F4">
-        <v>8.440308497472017</v>
+        <v>10.33209814518233</v>
       </c>
       <c r="G4">
-        <v>0.002718903784300632</v>
+        <v>0.0006959427251407376</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.4168841013767013</v>
+        <v>0.1715182166434754</v>
       </c>
       <c r="J4">
-        <v>0.06402602727505879</v>
+        <v>0.05229815833648743</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>3.36546262853517</v>
+        <v>6.287136680922913</v>
       </c>
       <c r="N4">
-        <v>1.290708908355413</v>
+        <v>0.8264660114597362</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.08922811169776423</v>
+        <v>0.2421085566049186</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2681086155417347</v>
+        <v>0.8782993080430401</v>
       </c>
       <c r="E5">
-        <v>0.05464823394373752</v>
+        <v>0.2151782057589102</v>
       </c>
       <c r="F5">
-        <v>8.387054535638157</v>
+        <v>9.833040570530869</v>
       </c>
       <c r="G5">
-        <v>0.002723667960942203</v>
+        <v>0.0007060972383565733</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.4190309441090818</v>
+        <v>0.1769057922811097</v>
       </c>
       <c r="J5">
-        <v>0.06380748318707319</v>
+        <v>0.051209584716009</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>3.312988843516109</v>
+        <v>5.971034131041478</v>
       </c>
       <c r="N5">
-        <v>1.293059640577219</v>
+        <v>0.8353339184811048</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08867080332441901</v>
+        <v>0.240403013249292</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2666836163687094</v>
+        <v>0.8697465705380694</v>
       </c>
       <c r="E6">
-        <v>0.05425667137317447</v>
+        <v>0.2131930726807596</v>
       </c>
       <c r="F6">
-        <v>8.378339109065649</v>
+        <v>9.752152701736577</v>
       </c>
       <c r="G6">
-        <v>0.002724466713400778</v>
+        <v>0.0007077705350471391</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.4193915163515944</v>
+        <v>0.1778035886444371</v>
       </c>
       <c r="J6">
-        <v>0.06377125731506439</v>
+        <v>0.05103160341100477</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>3.304316088841716</v>
+        <v>5.919459511003538</v>
       </c>
       <c r="N6">
-        <v>1.293459408924193</v>
+        <v>0.8368042062657821</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09253812280854845</v>
+        <v>0.2522362165051817</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2766018580915102</v>
+        <v>0.9302059452551816</v>
       </c>
       <c r="E7">
-        <v>0.05697566611002003</v>
+        <v>0.2271909912631571</v>
       </c>
       <c r="F7">
-        <v>8.43958172277641</v>
+        <v>10.32522760423234</v>
       </c>
       <c r="G7">
-        <v>0.002718967522448847</v>
+        <v>0.000696080616280757</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.4169127802383796</v>
+        <v>0.1715906772705607</v>
       </c>
       <c r="J7">
-        <v>0.06402307564910714</v>
+        <v>0.05228327968839253</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>3.364752220060382</v>
+        <v>6.282808832972961</v>
       </c>
       <c r="N7">
-        <v>1.290739979373882</v>
+        <v>0.8265858343147983</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.109576482731697</v>
+        <v>0.304327042779903</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.3210801045543974</v>
+        <v>1.234105405151212</v>
       </c>
       <c r="E8">
-        <v>0.06900915686149034</v>
+        <v>0.2964661458786679</v>
       </c>
       <c r="F8">
-        <v>8.728735505745419</v>
+        <v>13.24158876792239</v>
       </c>
       <c r="G8">
-        <v>0.002695808070731884</v>
+        <v>0.0006415077455977223</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.4065690172184357</v>
+        <v>0.1444124208494229</v>
       </c>
       <c r="J8">
-        <v>0.06514377927114978</v>
+        <v>0.05837302232409769</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>3.637494276173868</v>
+        <v>8.066793662260267</v>
       </c>
       <c r="N8">
-        <v>1.280105536868675</v>
+        <v>0.780083438010422</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1428706530693233</v>
+        <v>0.4057524105407992</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.4112470926662297</v>
+        <v>2.262211070778307</v>
       </c>
       <c r="E9">
-        <v>0.09280826514971352</v>
+        <v>0.5223063259403204</v>
       </c>
       <c r="F9">
-        <v>9.367700595510769</v>
+        <v>23.26378388982653</v>
       </c>
       <c r="G9">
-        <v>0.002654304278975268</v>
+        <v>0.0004908781061583446</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.3884186046752465</v>
+        <v>0.08444344460276643</v>
       </c>
       <c r="J9">
-        <v>0.06737872431420655</v>
+        <v>0.07767792696846954</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>4.195809051292827</v>
+        <v>13.60959331910905</v>
       </c>
       <c r="N9">
-        <v>1.264113668017842</v>
+        <v>0.6494736134932566</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1672453775322538</v>
+        <v>0.4057524105407992</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.4796778710994545</v>
+        <v>2.262211070778307</v>
       </c>
       <c r="E10">
-        <v>0.110491996975739</v>
+        <v>0.5223063259403204</v>
       </c>
       <c r="F10">
-        <v>9.885003994540796</v>
+        <v>23.26378388982653</v>
       </c>
       <c r="G10">
-        <v>0.002626130082598916</v>
+        <v>0.0004908781061583446</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.3763814195515653</v>
+        <v>0.08444344460276643</v>
       </c>
       <c r="J10">
-        <v>0.06904683420804503</v>
+        <v>0.07767792696846954</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>4.622067154923371</v>
+        <v>13.60959331910905</v>
       </c>
       <c r="N10">
-        <v>1.255288292216051</v>
+        <v>0.6494736134932566</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1783124145359238</v>
+        <v>0.4057524105407992</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.5113734602943509</v>
+        <v>2.262211070778307</v>
       </c>
       <c r="E11">
-        <v>0.1185974515411843</v>
+        <v>0.5223063259403204</v>
       </c>
       <c r="F11">
-        <v>10.13165864121345</v>
+        <v>23.26378388982653</v>
       </c>
       <c r="G11">
-        <v>0.002613801561328294</v>
+        <v>0.0004908781061583446</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.3711866250540261</v>
+        <v>0.08444344460276643</v>
       </c>
       <c r="J11">
-        <v>0.06981217341703427</v>
+        <v>0.07767792696846954</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>4.819881476264044</v>
+        <v>13.60959331910905</v>
       </c>
       <c r="N11">
-        <v>1.251899959915477</v>
+        <v>0.6494736134932566</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1824998850534314</v>
+        <v>0.4057524105407992</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.5234649031838217</v>
+        <v>2.262211070778307</v>
       </c>
       <c r="E12">
-        <v>0.121677054413631</v>
+        <v>0.5223063259403204</v>
       </c>
       <c r="F12">
-        <v>10.22676976099706</v>
+        <v>23.26378388982653</v>
       </c>
       <c r="G12">
-        <v>0.00260920202682191</v>
+        <v>0.0004908781061583446</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.3692598638240856</v>
+        <v>0.08444344460276643</v>
       </c>
       <c r="J12">
-        <v>0.07010299105635909</v>
+        <v>0.07767792696846954</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>4.895385557163195</v>
+        <v>13.60959331910905</v>
       </c>
       <c r="N12">
-        <v>1.250706275362205</v>
+        <v>0.6494736134932566</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.181598193804632</v>
+        <v>0.4057524105407992</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.5208567104844519</v>
+        <v>2.262211070778307</v>
       </c>
       <c r="E13">
-        <v>0.1210133270965343</v>
+        <v>0.5223063259403204</v>
       </c>
       <c r="F13">
-        <v>10.2062085977023</v>
+        <v>23.26378388982653</v>
       </c>
       <c r="G13">
-        <v>0.002610189568728901</v>
+        <v>0.0004908781061583446</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.3696730299177027</v>
+        <v>0.08444344460276643</v>
       </c>
       <c r="J13">
-        <v>0.07004031271225841</v>
+        <v>0.07767792696846954</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>4.879097325965574</v>
+        <v>13.60959331910905</v>
       </c>
       <c r="N13">
-        <v>1.250959391027067</v>
+        <v>0.6494736134932566</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1786569898254129</v>
+        <v>0.4057524105407992</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.512366401690258</v>
+        <v>2.262211070778307</v>
       </c>
       <c r="E14">
-        <v>0.1188505983628332</v>
+        <v>0.5223063259403204</v>
       </c>
       <c r="F14">
-        <v>10.13944878499154</v>
+        <v>23.26378388982653</v>
       </c>
       <c r="G14">
-        <v>0.002613421778481135</v>
+        <v>0.0004908781061583446</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.3710272997330826</v>
+        <v>0.08444344460276643</v>
       </c>
       <c r="J14">
-        <v>0.06983607872678732</v>
+        <v>0.07767792696846954</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>4.826081093152368</v>
+        <v>13.60959331910905</v>
       </c>
       <c r="N14">
-        <v>1.251799966797847</v>
+        <v>0.6494736134932566</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1768549679028126</v>
+        <v>0.4057524105407992</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.5071776667383574</v>
+        <v>2.262211070778307</v>
       </c>
       <c r="E15">
-        <v>0.1175272433493433</v>
+        <v>0.5223063259403204</v>
       </c>
       <c r="F15">
-        <v>10.09878136584575</v>
+        <v>23.26378388982653</v>
       </c>
       <c r="G15">
-        <v>0.002615410552243876</v>
+        <v>0.0004908781061583446</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.3718620893955382</v>
+        <v>0.08444344460276643</v>
       </c>
       <c r="J15">
-        <v>0.06971111176991229</v>
+        <v>0.07767792696846954</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>4.793685796131001</v>
+        <v>13.60959331910905</v>
       </c>
       <c r="N15">
-        <v>1.252326466959715</v>
+        <v>0.6494736134932566</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1665216663427742</v>
+        <v>0.4057524105407992</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.4776185225325662</v>
+        <v>2.262211070778307</v>
       </c>
       <c r="E16">
-        <v>0.1099636382679137</v>
+        <v>0.5223063259403204</v>
       </c>
       <c r="F16">
-        <v>9.869119198261899</v>
+        <v>23.26378388982653</v>
       </c>
       <c r="G16">
-        <v>0.002626945501876327</v>
+        <v>0.0004908781061583446</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.3767265647750762</v>
+        <v>0.08444344460276643</v>
       </c>
       <c r="J16">
-        <v>0.06899695385605042</v>
+        <v>0.07767792696846954</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>4.60922103222461</v>
+        <v>13.60959331910905</v>
       </c>
       <c r="N16">
-        <v>1.255522274653885</v>
+        <v>0.6494736134932566</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1601768642966164</v>
+        <v>0.4057524105407992</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.4596352260936101</v>
+        <v>2.262211070778307</v>
       </c>
       <c r="E17">
-        <v>0.1053402638266334</v>
+        <v>0.5223063259403204</v>
       </c>
       <c r="F17">
-        <v>9.73118591536155</v>
+        <v>23.26378388982653</v>
       </c>
       <c r="G17">
-        <v>0.002634146001049131</v>
+        <v>0.0004908781061583446</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.3797827215258618</v>
+        <v>0.08444344460276643</v>
       </c>
       <c r="J17">
-        <v>0.06856055240892545</v>
+        <v>0.07767792696846954</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>4.497082403350447</v>
+        <v>13.60959331910905</v>
       </c>
       <c r="N17">
-        <v>1.257642750860427</v>
+        <v>0.6494736134932566</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1565255312482918</v>
+        <v>0.4057524105407992</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.4493445143411918</v>
+        <v>2.262211070778307</v>
       </c>
       <c r="E18">
-        <v>0.1026866739667796</v>
+        <v>0.5223063259403204</v>
       </c>
       <c r="F18">
-        <v>9.652911875354789</v>
+        <v>23.26378388982653</v>
       </c>
       <c r="G18">
-        <v>0.002638333549291659</v>
+        <v>0.0004908781061583446</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.3815669899135106</v>
+        <v>0.08444344460276643</v>
       </c>
       <c r="J18">
-        <v>0.06831015425656517</v>
+        <v>0.07767792696846954</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>4.432948852783539</v>
+        <v>13.60959331910905</v>
       </c>
       <c r="N18">
-        <v>1.258921389601824</v>
+        <v>0.6494736134932566</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1552889244266993</v>
+        <v>0.4057524105407992</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.4458690998288262</v>
+        <v>2.262211070778307</v>
       </c>
       <c r="E19">
-        <v>0.1017891414722598</v>
+        <v>0.5223063259403204</v>
       </c>
       <c r="F19">
-        <v>9.626589608630297</v>
+        <v>23.26378388982653</v>
       </c>
       <c r="G19">
-        <v>0.002639759318483953</v>
+        <v>0.0004908781061583446</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.3821756552940574</v>
+        <v>0.08444344460276643</v>
       </c>
       <c r="J19">
-        <v>0.06822547634568821</v>
+        <v>0.07767792696846954</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>4.411296118482426</v>
+        <v>13.60959331910905</v>
       </c>
       <c r="N19">
-        <v>1.259364467974805</v>
+        <v>0.6494736134932566</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1608524857101941</v>
+        <v>0.4057524105407992</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.4615440597217457</v>
+        <v>2.262211070778307</v>
       </c>
       <c r="E20">
-        <v>0.1058318345024958</v>
+        <v>0.5223063259403204</v>
       </c>
       <c r="F20">
-        <v>9.745758724454447</v>
+        <v>23.26378388982653</v>
       </c>
       <c r="G20">
-        <v>0.002633374742171574</v>
+        <v>0.0004908781061583446</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.3794546512457586</v>
+        <v>0.08444344460276643</v>
       </c>
       <c r="J20">
-        <v>0.06860694466565675</v>
+        <v>0.07767792696846954</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>4.508981669383701</v>
+        <v>13.60959331910905</v>
       </c>
       <c r="N20">
-        <v>1.257410921459552</v>
+        <v>0.6494736134932566</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1795209870099086</v>
+        <v>0.4057524105407992</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.514857732877033</v>
+        <v>2.262211070778307</v>
       </c>
       <c r="E21">
-        <v>0.1194855541540534</v>
+        <v>0.5223063259403204</v>
       </c>
       <c r="F21">
-        <v>10.15901074577329</v>
+        <v>23.26378388982653</v>
       </c>
       <c r="G21">
-        <v>0.00261247053690165</v>
+        <v>0.0004908781061583446</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.3706284216366491</v>
+        <v>0.08444344460276643</v>
       </c>
       <c r="J21">
-        <v>0.06989603951516443</v>
+        <v>0.07767792696846954</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>4.84163678602394</v>
+        <v>13.60959331910905</v>
       </c>
       <c r="N21">
-        <v>1.251550648232111</v>
+        <v>0.6494736134932566</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.1917021000906232</v>
+        <v>0.4057524105407992</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.5502239404304987</v>
+        <v>2.262211070778307</v>
       </c>
       <c r="E22">
-        <v>0.1284694905734867</v>
+        <v>0.5223063259403204</v>
       </c>
       <c r="F22">
-        <v>10.43909211422579</v>
+        <v>23.26378388982653</v>
       </c>
       <c r="G22">
-        <v>0.002599210094606625</v>
+        <v>0.0004908781061583446</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.3650954174035519</v>
+        <v>0.08444344460276643</v>
       </c>
       <c r="J22">
-        <v>0.07074440112486968</v>
+        <v>0.07767792696846954</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>5.062537867036667</v>
+        <v>13.60959331910905</v>
       </c>
       <c r="N22">
-        <v>1.248241426357609</v>
+        <v>0.6494736134932566</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1852027350620915</v>
+        <v>0.4057524105407992</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.5312978913959796</v>
+        <v>2.262211070778307</v>
       </c>
       <c r="E23">
-        <v>0.12366855950917</v>
+        <v>0.5223063259403204</v>
       </c>
       <c r="F23">
-        <v>10.28866547319222</v>
+        <v>23.26378388982653</v>
       </c>
       <c r="G23">
-        <v>0.002606251087721186</v>
+        <v>0.0004908781061583446</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.3680269456241394</v>
+        <v>0.08444344460276643</v>
       </c>
       <c r="J23">
-        <v>0.07029105557555226</v>
+        <v>0.07767792696846954</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>4.94430750361667</v>
+        <v>13.60959331910905</v>
       </c>
       <c r="N23">
-        <v>1.249960185824392</v>
+        <v>0.6494736134932566</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1605470485250891</v>
+        <v>0.4057524105407992</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.4606809267102108</v>
+        <v>2.262211070778307</v>
       </c>
       <c r="E24">
-        <v>0.1056095816501568</v>
+        <v>0.5223063259403204</v>
       </c>
       <c r="F24">
-        <v>9.739167168746292</v>
+        <v>23.26378388982653</v>
       </c>
       <c r="G24">
-        <v>0.002633723279212352</v>
+        <v>0.0004908781061583446</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.3796028869622337</v>
+        <v>0.08444344460276643</v>
       </c>
       <c r="J24">
-        <v>0.06858596919020599</v>
+        <v>0.07767792696846954</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>4.503600965836597</v>
+        <v>13.60959331910905</v>
       </c>
       <c r="N24">
-        <v>1.257515545999993</v>
+        <v>0.6494736134932566</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.1338778525281015</v>
+        <v>0.4057524105407992</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.3865000600602286</v>
+        <v>2.262211070778307</v>
       </c>
       <c r="E25">
-        <v>0.08634079948695472</v>
+        <v>0.5223063259403204</v>
       </c>
       <c r="F25">
-        <v>9.186740509996582</v>
+        <v>23.26378388982653</v>
       </c>
       <c r="G25">
-        <v>0.002665120092791551</v>
+        <v>0.0004908781061583446</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.3931006435439315</v>
+        <v>0.08444344460276643</v>
       </c>
       <c r="J25">
-        <v>0.06676978666531141</v>
+        <v>0.07767792696846954</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>4.042081441369533</v>
+        <v>13.60959331910905</v>
       </c>
       <c r="N25">
-        <v>1.267923560764686</v>
+        <v>0.6494736134932566</v>
       </c>
       <c r="O25">
         <v>0</v>
